--- a/DATA/Spatial_Campaign_data.xlsx
+++ b/DATA/Spatial_Campaign_data.xlsx
@@ -1043,6 +1043,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1342,9 +1346,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K117" sqref="K117"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="4" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AH1" sqref="AH1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/DATA/Spatial_Campaign_data.xlsx
+++ b/DATA/Spatial_Campaign_data.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="3842" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D40754F-13DA-4005-9FAA-11DB32460CBF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="-7830" yWindow="1290" windowWidth="14400" windowHeight="15525" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exposed" sheetId="1" r:id="rId1"/>
@@ -1044,6 +1044,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -28612,7 +28616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB97E2D5-F0DA-4BE1-95F4-350946FDEB02}">
   <dimension ref="A1:AS71"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AS6" sqref="AS6"/>
     </sheetView>
@@ -28941,11 +28945,11 @@
         <v>5069.4000000000005</v>
       </c>
       <c r="AN4">
-        <f t="shared" ref="AN3:AN66" si="3">(G4*100)/K4</f>
+        <f t="shared" ref="AN4:AN66" si="3">(G4*100)/K4</f>
         <v>16.743589743589745</v>
       </c>
       <c r="AO4">
-        <f t="shared" ref="AO3:AO66" si="4">(I4*100)/L4</f>
+        <f t="shared" ref="AO4:AO66" si="4">(I4*100)/L4</f>
         <v>15.544794188861987</v>
       </c>
       <c r="AP4">
@@ -35241,9 +35245,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648D0FFD-61A4-453C-9144-D00AACAF79A4}">
   <dimension ref="A1:AQ132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AM5" sqref="AM5"/>
+    <sheetView topLeftCell="S1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35711,7 +35715,7 @@
         <v>88.292682926829258</v>
       </c>
       <c r="AM6">
-        <f t="shared" ref="AM5:AM68" si="8">(I6*100)/L6</f>
+        <f t="shared" ref="AM6:AM68" si="8">(I6*100)/L6</f>
         <v>129.21052631578948</v>
       </c>
       <c r="AN6">

--- a/DATA/Spatial_Campaign_data.xlsx
+++ b/DATA/Spatial_Campaign_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/73f8c170b5923d91/Bureaublad/Github/Coastclim Spatial/Spatial-23-CoastClim/DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3842" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D40754F-13DA-4005-9FAA-11DB32460CBF}"/>
+  <xr:revisionPtr revIDLastSave="3849" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA9ABB09-2183-4055-BD28-328D4B86E6A0}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-7830" yWindow="1290" windowWidth="14400" windowHeight="15525" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exposed" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1615" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1612" uniqueCount="193">
   <si>
     <t>Notes</t>
   </si>
@@ -353,9 +353,6 @@
     <t>S2.6</t>
   </si>
   <si>
-    <t>OBS! There was extra 86,5 this species in freeze-dryed excel</t>
-  </si>
-  <si>
     <t>CERDEM</t>
   </si>
   <si>
@@ -534,12 +531,6 @@
   </si>
   <si>
     <t>Two sets of tubes were marked with D3.4 POTPER and the second set is now under D3.5 POTPER! rhizome length in tube for c/n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">And Exposed 3 sample had a spare  STUPEC/RUPIA/ZANMAJ Above  1293.8 </t>
-  </si>
-  <si>
-    <t>Extra 123,4 root in freeze-dryed excel so the two root values were summed together.</t>
   </si>
   <si>
     <t>Detritus + algae (mg)</t>
@@ -1044,10 +1035,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -1347,9 +1334,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN137"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="4" topLeftCell="N1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK20" sqref="AK20"/>
+      <selection pane="topRight" activeCell="AA81" sqref="AA81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1391,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="69" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C1" s="69" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -1406,22 +1393,22 @@
         <v>4</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>180</v>
-      </c>
       <c r="K1" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M1" s="6" t="s">
         <v>6</v>
@@ -1484,13 +1471,13 @@
         <v>21</v>
       </c>
       <c r="AH1" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI1" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="AI1" s="11" t="s">
-        <v>194</v>
-      </c>
       <c r="AJ1" s="12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AK1" s="11" t="s">
         <v>24</v>
@@ -1513,7 +1500,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D2" s="52" t="s">
         <v>28</v>
@@ -1625,7 +1612,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D3" s="52" t="s">
         <v>29</v>
@@ -1737,7 +1724,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D4" s="52" t="s">
         <v>28</v>
@@ -1846,7 +1833,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D5" s="52" t="s">
         <v>30</v>
@@ -1955,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D6" s="52" t="s">
         <v>29</v>
@@ -2067,7 +2054,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D7" s="52" t="s">
         <v>28</v>
@@ -2173,7 +2160,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D8" s="52" t="s">
         <v>29</v>
@@ -2285,7 +2272,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D9" s="52" t="s">
         <v>28</v>
@@ -2397,7 +2384,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D10" s="52" t="s">
         <v>30</v>
@@ -2509,7 +2496,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D11" s="52" t="s">
         <v>29</v>
@@ -2603,7 +2590,7 @@
         <v>3.7771482530689335E-2</v>
       </c>
       <c r="AN11">
-        <f t="shared" si="8"/>
+        <f>P11/IF(Q11=0,S11,Q11)</f>
         <v>0.58213256484149845</v>
       </c>
     </row>
@@ -2615,7 +2602,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D12" s="52" t="s">
         <v>30</v>
@@ -2710,7 +2697,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D13" s="52" t="s">
         <v>29</v>
@@ -2817,7 +2804,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D14" s="52" t="s">
         <v>28</v>
@@ -2923,7 +2910,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D15" s="52" t="s">
         <v>29</v>
@@ -2977,7 +2964,7 @@
         <v>3307.4</v>
       </c>
       <c r="AA15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AC15">
         <f t="shared" si="0"/>
@@ -3032,7 +3019,7 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D16" s="52" t="s">
         <v>30</v>
@@ -3089,7 +3076,7 @@
         <v>2137.5</v>
       </c>
       <c r="AA16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AC16">
         <f t="shared" si="0"/>
@@ -3144,7 +3131,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D17" s="52" t="s">
         <v>29</v>
@@ -3250,7 +3237,7 @@
         <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D18" s="52" t="s">
         <v>28</v>
@@ -3356,7 +3343,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D19" s="52" t="s">
         <v>30</v>
@@ -3455,7 +3442,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D20" s="52" t="s">
         <v>29</v>
@@ -3561,7 +3548,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D21" s="52" t="s">
         <v>33</v>
@@ -3679,7 +3666,7 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D22" s="52" t="s">
         <v>33</v>
@@ -3797,7 +3784,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D23" s="52" t="s">
         <v>33</v>
@@ -3912,7 +3899,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D24" s="52" t="s">
         <v>33</v>
@@ -4030,7 +4017,7 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D25" s="52" t="s">
         <v>33</v>
@@ -4142,7 +4129,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D26" s="52" t="s">
         <v>33</v>
@@ -4254,7 +4241,7 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D27" s="52" t="s">
         <v>28</v>
@@ -4366,7 +4353,7 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D28" s="52" t="s">
         <v>30</v>
@@ -4472,7 +4459,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D29" s="52" t="s">
         <v>33</v>
@@ -4581,7 +4568,7 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D30" s="52" t="s">
         <v>28</v>
@@ -4687,7 +4674,7 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D31" s="52" t="s">
         <v>29</v>
@@ -4793,7 +4780,7 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D32" s="52" t="s">
         <v>33</v>
@@ -4905,7 +4892,7 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D33" s="52" t="s">
         <v>33</v>
@@ -5019,7 +5006,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D34" s="52" t="s">
         <v>28</v>
@@ -5070,7 +5057,7 @@
         <v>5.38</v>
       </c>
       <c r="AA34" s="57" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AC34">
         <f t="shared" si="0"/>
@@ -5125,7 +5112,7 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D35" s="52" t="s">
         <v>30</v>
@@ -5234,7 +5221,7 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D36" s="52" t="s">
         <v>33</v>
@@ -5346,7 +5333,7 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D37" s="52" t="s">
         <v>28</v>
@@ -5375,7 +5362,7 @@
       <c r="L37">
         <v>2.81</v>
       </c>
-      <c r="M37" s="56">
+      <c r="M37" s="57">
         <v>9.19</v>
       </c>
       <c r="O37" s="52">
@@ -5388,20 +5375,20 @@
       <c r="R37" s="57">
         <v>62.49</v>
       </c>
-      <c r="S37" s="56">
+      <c r="S37" s="57">
         <v>25.92</v>
       </c>
       <c r="T37" s="52">
         <v>15.5</v>
       </c>
-      <c r="V37" s="56">
+      <c r="V37" s="57">
         <v>5.57</v>
       </c>
       <c r="W37" s="52">
         <v>4.37</v>
       </c>
       <c r="AA37" s="52" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AC37">
         <f t="shared" si="0"/>
@@ -5456,7 +5443,7 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D38" s="52" t="s">
         <v>33</v>
@@ -5568,7 +5555,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D39" s="52" t="s">
         <v>30</v>
@@ -5677,7 +5664,7 @@
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D40" s="52" t="s">
         <v>33</v>
@@ -5783,7 +5770,7 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D41" s="52" t="s">
         <v>33</v>
@@ -5895,7 +5882,7 @@
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D42" s="52" t="s">
         <v>33</v>
@@ -6010,7 +5997,7 @@
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D43" s="52" t="s">
         <v>33</v>
@@ -6122,7 +6109,7 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D44" s="52" t="s">
         <v>37</v>
@@ -6224,7 +6211,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D45" s="52" t="s">
         <v>30</v>
@@ -6330,7 +6317,7 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D46" s="52" t="s">
         <v>33</v>
@@ -6439,7 +6426,7 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D47" s="52" t="s">
         <v>33</v>
@@ -6545,7 +6532,7 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D48" s="52" t="s">
         <v>30</v>
@@ -6654,7 +6641,7 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D49" s="52" t="s">
         <v>33</v>
@@ -6764,7 +6751,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D50" s="52" t="s">
         <v>30</v>
@@ -6871,7 +6858,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D51" s="52" t="s">
         <v>29</v>
@@ -6978,7 +6965,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D52" s="52" t="s">
         <v>37</v>
@@ -7091,7 +7078,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D53" s="52" t="s">
         <v>28</v>
@@ -7198,7 +7185,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D54" s="52" t="s">
         <v>30</v>
@@ -7305,7 +7292,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D55" s="52" t="s">
         <v>29</v>
@@ -7412,7 +7399,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D56" s="52" t="s">
         <v>37</v>
@@ -7510,7 +7497,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D57" s="52" t="s">
         <v>30</v>
@@ -7617,7 +7604,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D58" s="52" t="s">
         <v>29</v>
@@ -7727,7 +7714,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D59" s="52" t="s">
         <v>30</v>
@@ -7834,7 +7821,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D60" s="52" t="s">
         <v>37</v>
@@ -7947,7 +7934,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D61" s="52" t="s">
         <v>28</v>
@@ -8054,7 +8041,7 @@
         <v>1</v>
       </c>
       <c r="C62" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D62" s="52" t="s">
         <v>30</v>
@@ -8161,7 +8148,7 @@
         <v>1</v>
       </c>
       <c r="C63" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D63" s="52" t="s">
         <v>29</v>
@@ -8268,7 +8255,7 @@
         <v>1</v>
       </c>
       <c r="C64" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D64" s="52" t="s">
         <v>37</v>
@@ -8375,7 +8362,7 @@
         <v>1</v>
       </c>
       <c r="C65" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D65" s="52" t="s">
         <v>29</v>
@@ -8482,7 +8469,7 @@
         <v>1</v>
       </c>
       <c r="C66" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D66" s="52" t="s">
         <v>28</v>
@@ -8589,7 +8576,7 @@
         <v>1</v>
       </c>
       <c r="C67" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D67" s="52" t="s">
         <v>30</v>
@@ -8696,7 +8683,7 @@
         <v>1</v>
       </c>
       <c r="C68" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D68" s="52" t="s">
         <v>29</v>
@@ -8803,7 +8790,7 @@
         <v>1</v>
       </c>
       <c r="C69" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D69" s="52" t="s">
         <v>37</v>
@@ -8914,7 +8901,7 @@
         <v>1</v>
       </c>
       <c r="C70" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D70" s="52" t="s">
         <v>28</v>
@@ -9021,7 +9008,7 @@
         <v>1</v>
       </c>
       <c r="C71" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D71" s="52" t="s">
         <v>29</v>
@@ -9126,7 +9113,7 @@
         <v>2</v>
       </c>
       <c r="C72" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D72" s="52" t="s">
         <v>30</v>
@@ -9241,7 +9228,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D73" s="52" t="s">
         <v>46</v>
@@ -9354,7 +9341,7 @@
         <v>2</v>
       </c>
       <c r="C74" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D74" s="52" t="s">
         <v>29</v>
@@ -9469,7 +9456,7 @@
         <v>2</v>
       </c>
       <c r="C75" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D75" s="52" t="s">
         <v>29</v>
@@ -9581,7 +9568,7 @@
         <v>2</v>
       </c>
       <c r="C76" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D76" s="52" t="s">
         <v>29</v>
@@ -9693,7 +9680,7 @@
         <v>2</v>
       </c>
       <c r="C77" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D77" s="52" t="s">
         <v>46</v>
@@ -9805,7 +9792,7 @@
         <v>2</v>
       </c>
       <c r="C78" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D78" s="52" t="s">
         <v>30</v>
@@ -9911,7 +9898,7 @@
         <v>2</v>
       </c>
       <c r="C79" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D79" s="52" t="s">
         <v>29</v>
@@ -10017,7 +10004,7 @@
         <v>2</v>
       </c>
       <c r="C80" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D80" s="52" t="s">
         <v>33</v>
@@ -10120,7 +10107,7 @@
         <v>3</v>
       </c>
       <c r="C81" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D81" s="52" t="s">
         <v>28</v>
@@ -10177,9 +10164,7 @@
       <c r="Y81" s="57">
         <v>5.53</v>
       </c>
-      <c r="AA81" s="56" t="s">
-        <v>165</v>
-      </c>
+      <c r="AA81" s="56"/>
       <c r="AC81">
         <f t="shared" si="11"/>
         <v>161.00000000000003</v>
@@ -10233,7 +10218,7 @@
         <v>3</v>
       </c>
       <c r="C82" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D82" s="52" t="s">
         <v>30</v>
@@ -10345,7 +10330,7 @@
         <v>3</v>
       </c>
       <c r="C83" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D83" s="52" t="s">
         <v>28</v>
@@ -10451,7 +10436,7 @@
         <v>3</v>
       </c>
       <c r="C84" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D84" s="52" t="s">
         <v>46</v>
@@ -10560,7 +10545,7 @@
         <v>3</v>
       </c>
       <c r="C85" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D85" s="52" t="s">
         <v>30</v>
@@ -10670,7 +10655,7 @@
         <v>3</v>
       </c>
       <c r="C86" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D86" s="52" t="s">
         <v>29</v>
@@ -10776,7 +10761,7 @@
         <v>3</v>
       </c>
       <c r="C87" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D87" s="52" t="s">
         <v>28</v>
@@ -10885,7 +10870,7 @@
         <v>3</v>
       </c>
       <c r="C88" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D88" s="52" t="s">
         <v>46</v>
@@ -10997,7 +10982,7 @@
         <v>3</v>
       </c>
       <c r="C89" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D89" s="52" t="s">
         <v>30</v>
@@ -11103,7 +11088,7 @@
         <v>3</v>
       </c>
       <c r="C90" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D90" s="52" t="s">
         <v>28</v>
@@ -11210,7 +11195,7 @@
         <v>3</v>
       </c>
       <c r="C91" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D91" s="52" t="s">
         <v>46</v>
@@ -11316,7 +11301,7 @@
         <v>3</v>
       </c>
       <c r="C92" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D92" s="52" t="s">
         <v>30</v>
@@ -11422,7 +11407,7 @@
         <v>3</v>
       </c>
       <c r="C93" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D93" s="52" t="s">
         <v>29</v>
@@ -11528,7 +11513,7 @@
         <v>3</v>
       </c>
       <c r="C94" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D94" s="52" t="s">
         <v>28</v>
@@ -11640,7 +11625,7 @@
         <v>3</v>
       </c>
       <c r="C95" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D95" s="52" t="s">
         <v>46</v>
@@ -11752,7 +11737,7 @@
         <v>3</v>
       </c>
       <c r="C96" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D96" s="52" t="s">
         <v>30</v>
@@ -11858,7 +11843,7 @@
         <v>3</v>
       </c>
       <c r="C97" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D97" s="52" t="s">
         <v>29</v>
@@ -11964,7 +11949,7 @@
         <v>3</v>
       </c>
       <c r="C98" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D98" s="52" t="s">
         <v>30</v>
@@ -12070,7 +12055,7 @@
         <v>3</v>
       </c>
       <c r="C99" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D99" s="52" t="s">
         <v>29</v>
@@ -12179,7 +12164,7 @@
         <v>4</v>
       </c>
       <c r="C100" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D100" s="52" t="s">
         <v>37</v>
@@ -12285,7 +12270,7 @@
         <v>4</v>
       </c>
       <c r="C101" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D101" s="52" t="s">
         <v>28</v>
@@ -12397,7 +12382,7 @@
         <v>4</v>
       </c>
       <c r="C102" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D102" s="52" t="s">
         <v>29</v>
@@ -12506,7 +12491,7 @@
         <v>4</v>
       </c>
       <c r="C103" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D103" s="52" t="s">
         <v>33</v>
@@ -12609,7 +12594,7 @@
         <v>4</v>
       </c>
       <c r="C104" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D104" s="52" t="s">
         <v>28</v>
@@ -12715,7 +12700,7 @@
         <v>4</v>
       </c>
       <c r="C105" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D105" s="52" t="s">
         <v>30</v>
@@ -12821,7 +12806,7 @@
         <v>4</v>
       </c>
       <c r="C106" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D106" s="52" t="s">
         <v>29</v>
@@ -12928,7 +12913,7 @@
         <v>4</v>
       </c>
       <c r="C107" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D107" s="52" t="s">
         <v>28</v>
@@ -13040,7 +13025,7 @@
         <v>4</v>
       </c>
       <c r="C108" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D108" s="52" t="s">
         <v>46</v>
@@ -13147,7 +13132,7 @@
         <v>4</v>
       </c>
       <c r="C109" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D109" s="52" t="s">
         <v>30</v>
@@ -13259,7 +13244,7 @@
         <v>4</v>
       </c>
       <c r="C110" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D110" s="52" t="s">
         <v>29</v>
@@ -13371,7 +13356,7 @@
         <v>4</v>
       </c>
       <c r="C111" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D111" s="52" t="s">
         <v>28</v>
@@ -13480,7 +13465,7 @@
         <v>4</v>
       </c>
       <c r="C112" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D112" s="52" t="s">
         <v>29</v>
@@ -13586,7 +13571,7 @@
         <v>4</v>
       </c>
       <c r="C113" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D113" s="52" t="s">
         <v>33</v>
@@ -13682,7 +13667,7 @@
         <v>4</v>
       </c>
       <c r="C114" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D114" s="52" t="s">
         <v>37</v>
@@ -13795,7 +13780,7 @@
         <v>4</v>
       </c>
       <c r="C115" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D115" s="52" t="s">
         <v>28</v>
@@ -13901,7 +13886,7 @@
         <v>4</v>
       </c>
       <c r="C116" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D116" s="52" t="s">
         <v>46</v>
@@ -13952,7 +13937,7 @@
         <v>6.04</v>
       </c>
       <c r="AA116" s="52" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AC116">
         <f t="shared" si="11"/>
@@ -14007,7 +13992,7 @@
         <v>4</v>
       </c>
       <c r="C117" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D117" s="52" t="s">
         <v>29</v>
@@ -14114,7 +14099,7 @@
         <v>4</v>
       </c>
       <c r="C118" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D118" s="52" t="s">
         <v>33</v>
@@ -14218,7 +14203,7 @@
         <v>4</v>
       </c>
       <c r="C119" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D119" s="52" t="s">
         <v>28</v>
@@ -14324,7 +14309,7 @@
         <v>4</v>
       </c>
       <c r="C120" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D120" s="52" t="s">
         <v>29</v>
@@ -14429,7 +14414,7 @@
         <v>5</v>
       </c>
       <c r="C121" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D121" s="52" t="s">
         <v>46</v>
@@ -14536,7 +14521,7 @@
         <v>5</v>
       </c>
       <c r="C122" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D122" s="52" t="s">
         <v>30</v>
@@ -14645,7 +14630,7 @@
         <v>5</v>
       </c>
       <c r="C123" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D123" s="52" t="s">
         <v>29</v>
@@ -14757,7 +14742,7 @@
         <v>5</v>
       </c>
       <c r="C124" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D124" s="52" t="s">
         <v>30</v>
@@ -14870,7 +14855,7 @@
         <v>5</v>
       </c>
       <c r="C125" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D125" s="52" t="s">
         <v>29</v>
@@ -14983,7 +14968,7 @@
         <v>5</v>
       </c>
       <c r="C126" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D126" s="52" t="s">
         <v>37</v>
@@ -15083,7 +15068,7 @@
         <v>5</v>
       </c>
       <c r="C127" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D127" s="52" t="s">
         <v>46</v>
@@ -15196,7 +15181,7 @@
         <v>5</v>
       </c>
       <c r="C128" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D128" s="52" t="s">
         <v>29</v>
@@ -15308,7 +15293,7 @@
         <v>5</v>
       </c>
       <c r="C129" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D129" s="52" t="s">
         <v>46</v>
@@ -15420,7 +15405,7 @@
         <v>5</v>
       </c>
       <c r="C130" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D130" s="52" t="s">
         <v>30</v>
@@ -15526,7 +15511,7 @@
         <v>5</v>
       </c>
       <c r="C131" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D131" s="52" t="s">
         <v>29</v>
@@ -15632,7 +15617,7 @@
         <v>5</v>
       </c>
       <c r="C132" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D132" s="52" t="s">
         <v>46</v>
@@ -15739,7 +15724,7 @@
         <v>5</v>
       </c>
       <c r="C133" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D133" s="52" t="s">
         <v>30</v>
@@ -15848,7 +15833,7 @@
         <v>5</v>
       </c>
       <c r="C134" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D134" s="52" t="s">
         <v>29</v>
@@ -15954,7 +15939,7 @@
         <v>5</v>
       </c>
       <c r="C135" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D135" s="52" t="s">
         <v>46</v>
@@ -16060,7 +16045,7 @@
         <v>5</v>
       </c>
       <c r="C136" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D136" s="52" t="s">
         <v>30</v>
@@ -16168,7 +16153,7 @@
         <v>5</v>
       </c>
       <c r="C137" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D137" s="52" t="s">
         <v>29</v>
@@ -16281,9 +16266,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17382F50-4681-49FC-87E6-FFB913C84EF9}">
   <dimension ref="A1:AO119"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AG22" sqref="AG22"/>
+      <selection pane="bottomLeft" activeCell="AB28" sqref="AB28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16296,10 +16281,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="70" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C1" s="70" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D1" s="14" t="s">
         <v>2</v>
@@ -16311,22 +16296,22 @@
         <v>4</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="K1" s="17" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="M1" s="19" t="s">
         <v>6</v>
@@ -16368,7 +16353,7 @@
         <v>31</v>
       </c>
       <c r="Z1" s="60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AA1" s="60" t="s">
         <v>32</v>
@@ -16392,13 +16377,13 @@
         <v>21</v>
       </c>
       <c r="AI1" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="AJ1" s="24" t="s">
         <v>191</v>
       </c>
-      <c r="AJ1" s="24" t="s">
-        <v>194</v>
-      </c>
       <c r="AK1" s="25" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="AL1" s="24" t="s">
         <v>24</v>
@@ -16421,7 +16406,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D2" s="52" t="s">
         <v>30</v>
@@ -16527,7 +16512,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D3" s="52" t="s">
         <v>37</v>
@@ -16581,7 +16566,7 @@
         <v>156.5</v>
       </c>
       <c r="AB3" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AD3">
         <f t="shared" ref="AD3:AD66" si="2">W3+O3+M3+L3+K3</f>
@@ -16636,7 +16621,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D4" s="52" t="s">
         <v>46</v>
@@ -16742,7 +16727,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D5" s="52" t="s">
         <v>29</v>
@@ -16848,7 +16833,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D6" s="52" t="s">
         <v>37</v>
@@ -16951,7 +16936,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D7" s="52" t="s">
         <v>46</v>
@@ -17055,7 +17040,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D8" s="52" t="s">
         <v>37</v>
@@ -17164,7 +17149,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D9" s="52" t="s">
         <v>29</v>
@@ -17270,7 +17255,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D10" s="52" t="s">
         <v>37</v>
@@ -17376,7 +17361,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D11" s="52" t="s">
         <v>29</v>
@@ -17483,7 +17468,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D12" s="52" t="s">
         <v>37</v>
@@ -17589,7 +17574,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D13" s="52" t="s">
         <v>28</v>
@@ -17698,7 +17683,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D14" s="52" t="s">
         <v>37</v>
@@ -17805,7 +17790,7 @@
         <v>2</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D15" s="52" t="s">
         <v>28</v>
@@ -17914,7 +17899,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D16" s="52" t="s">
         <v>28</v>
@@ -17969,9 +17954,6 @@
       </c>
       <c r="W16">
         <v>570.65</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>104</v>
       </c>
       <c r="AD16">
         <f t="shared" si="2"/>
@@ -18026,7 +18008,7 @@
         <v>2</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D17" s="52" t="s">
         <v>29</v>
@@ -18133,7 +18115,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D18" s="52" t="s">
         <v>30</v>
@@ -18239,7 +18221,7 @@
         <v>2</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D19" s="52" t="s">
         <v>28</v>
@@ -18348,7 +18330,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D20" s="52" t="s">
         <v>28</v>
@@ -18454,10 +18436,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E21" s="52">
         <v>33.700000000000003</v>
@@ -18531,7 +18513,7 @@
         <v>3</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D22" s="52" t="s">
         <v>37</v>
@@ -18638,10 +18620,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D23" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E23" s="52">
         <v>13.2</v>
@@ -18715,10 +18697,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E24" s="52">
         <v>33.1</v>
@@ -18790,10 +18772,10 @@
         <v>3</v>
       </c>
       <c r="C25" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D25" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E25" s="52">
         <v>16.600000000000001</v>
@@ -18865,10 +18847,10 @@
         <v>3</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D26" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E26" s="59">
         <v>11.9</v>
@@ -18940,10 +18922,10 @@
         <v>4</v>
       </c>
       <c r="C27" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E27" s="52">
         <v>13.7</v>
@@ -19020,7 +19002,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D28" s="52" t="s">
         <v>37</v>
@@ -19123,7 +19105,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D29" s="52" t="s">
         <v>46</v>
@@ -19230,10 +19212,10 @@
         <v>4</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D30" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E30" s="52">
         <v>18.5</v>
@@ -19308,10 +19290,10 @@
         <v>4</v>
       </c>
       <c r="C31" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D31" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E31" s="52">
         <v>12.6</v>
@@ -19386,7 +19368,7 @@
         <v>4</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D32" s="52" t="s">
         <v>37</v>
@@ -19489,10 +19471,10 @@
         <v>4</v>
       </c>
       <c r="C33" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D33" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E33" s="52">
         <v>21.9</v>
@@ -19564,10 +19546,10 @@
         <v>4</v>
       </c>
       <c r="C34" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D34" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E34" s="52">
         <v>18.899999999999999</v>
@@ -19636,13 +19618,13 @@
     </row>
     <row r="35" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A35" s="52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B35" s="52">
         <v>5</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D35" s="52" t="s">
         <v>28</v>
@@ -19745,13 +19727,13 @@
     </row>
     <row r="36" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A36" s="52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B36" s="52">
         <v>5</v>
       </c>
       <c r="C36" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D36" s="52" t="s">
         <v>33</v>
@@ -19851,13 +19833,13 @@
     </row>
     <row r="37" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A37" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B37" s="52">
         <v>5</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D37" s="52" t="s">
         <v>28</v>
@@ -19960,13 +19942,13 @@
     </row>
     <row r="38" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A38" s="52" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B38" s="52">
         <v>5</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D38" s="52" t="s">
         <v>33</v>
@@ -20069,13 +20051,13 @@
     </row>
     <row r="39" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A39" s="52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B39" s="52">
         <v>5</v>
       </c>
       <c r="C39" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D39" s="52" t="s">
         <v>29</v>
@@ -20132,7 +20114,7 @@
         <v>76.930000000000007</v>
       </c>
       <c r="AB39" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AD39">
         <f t="shared" si="2"/>
@@ -20181,16 +20163,16 @@
     </row>
     <row r="40" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A40" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B40" s="52">
         <v>5</v>
       </c>
       <c r="C40" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D40" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E40" s="52">
         <v>30.4</v>
@@ -20261,13 +20243,13 @@
     </row>
     <row r="41" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A41" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B41" s="52">
         <v>5</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D41" s="52" t="s">
         <v>28</v>
@@ -20321,7 +20303,7 @@
         <v>48.67</v>
       </c>
       <c r="AB41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AD41">
         <f t="shared" si="2"/>
@@ -20370,13 +20352,13 @@
     </row>
     <row r="42" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A42" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B42" s="52">
         <v>5</v>
       </c>
       <c r="C42" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D42" s="52" t="s">
         <v>30</v>
@@ -20479,13 +20461,13 @@
     </row>
     <row r="43" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A43" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B43" s="52">
         <v>5</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D43" s="52" t="s">
         <v>29</v>
@@ -20586,13 +20568,13 @@
     </row>
     <row r="44" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A44" s="52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B44" s="52">
         <v>5</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D44" s="52" t="s">
         <v>33</v>
@@ -20689,13 +20671,13 @@
     </row>
     <row r="45" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A45" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B45" s="52">
         <v>5</v>
       </c>
       <c r="C45" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D45" s="52" t="s">
         <v>28</v>
@@ -20798,13 +20780,13 @@
     </row>
     <row r="46" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A46" s="52" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B46" s="52">
         <v>5</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D46" s="52" t="s">
         <v>29</v>
@@ -20907,13 +20889,13 @@
     </row>
     <row r="47" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A47" s="52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B47" s="52">
         <v>5</v>
       </c>
       <c r="C47" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D47" s="52" t="s">
         <v>37</v>
@@ -21019,13 +21001,13 @@
     </row>
     <row r="48" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A48" s="52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B48" s="52">
         <v>5</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D48" s="52" t="s">
         <v>30</v>
@@ -21077,7 +21059,7 @@
         <v>91.37</v>
       </c>
       <c r="AB48" s="52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD48">
         <f t="shared" si="2"/>
@@ -21126,13 +21108,13 @@
     </row>
     <row r="49" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A49" s="52" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B49" s="52">
         <v>5</v>
       </c>
       <c r="C49" s="52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D49" s="52" t="s">
         <v>33</v>
@@ -21181,7 +21163,7 @@
         <v>349.18</v>
       </c>
       <c r="AB49" s="52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD49">
         <f t="shared" si="2"/>
@@ -21236,7 +21218,7 @@
         <v>1</v>
       </c>
       <c r="C50" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D50" s="52" t="s">
         <v>37</v>
@@ -21348,7 +21330,7 @@
         <v>1</v>
       </c>
       <c r="C51" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D51" s="52" t="s">
         <v>37</v>
@@ -21443,7 +21425,7 @@
         <v>1</v>
       </c>
       <c r="C52" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D52" s="52" t="s">
         <v>28</v>
@@ -21549,7 +21531,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D53" s="52" t="s">
         <v>46</v>
@@ -21661,7 +21643,7 @@
         <v>1</v>
       </c>
       <c r="C54" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D54" s="52" t="s">
         <v>30</v>
@@ -21770,7 +21752,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D55" s="52" t="s">
         <v>29</v>
@@ -21876,7 +21858,7 @@
         <v>1</v>
       </c>
       <c r="C56" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D56" s="52" t="s">
         <v>30</v>
@@ -21985,7 +21967,7 @@
         <v>1</v>
       </c>
       <c r="C57" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D57" s="52" t="s">
         <v>37</v>
@@ -22093,7 +22075,7 @@
         <v>1</v>
       </c>
       <c r="C58" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D58" s="52" t="s">
         <v>37</v>
@@ -22199,7 +22181,7 @@
         <v>1</v>
       </c>
       <c r="C59" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D59" s="52" t="s">
         <v>30</v>
@@ -22308,7 +22290,7 @@
         <v>1</v>
       </c>
       <c r="C60" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D60" s="52" t="s">
         <v>28</v>
@@ -22417,7 +22399,7 @@
         <v>1</v>
       </c>
       <c r="C61" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D61" s="52" t="s">
         <v>29</v>
@@ -22523,7 +22505,7 @@
         <v>2</v>
       </c>
       <c r="C62" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D62" s="52" t="s">
         <v>46</v>
@@ -22635,7 +22617,7 @@
         <v>2</v>
       </c>
       <c r="C63" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D63" s="52" t="s">
         <v>30</v>
@@ -22744,7 +22726,7 @@
         <v>2</v>
       </c>
       <c r="C64" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D64" s="52" t="s">
         <v>29</v>
@@ -22853,7 +22835,7 @@
         <v>2</v>
       </c>
       <c r="C65" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D65" s="52" t="s">
         <v>30</v>
@@ -22959,7 +22941,7 @@
         <v>2</v>
       </c>
       <c r="C66" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D66" s="52" t="s">
         <v>29</v>
@@ -23062,7 +23044,7 @@
         <v>2</v>
       </c>
       <c r="C67" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D67" s="52" t="s">
         <v>28</v>
@@ -23172,7 +23154,7 @@
         <v>2</v>
       </c>
       <c r="C68" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D68" s="52" t="s">
         <v>46</v>
@@ -23284,7 +23266,7 @@
         <v>2</v>
       </c>
       <c r="C69" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D69" s="52" t="s">
         <v>30</v>
@@ -23394,7 +23376,7 @@
         <v>2</v>
       </c>
       <c r="C70" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D70" s="52" t="s">
         <v>29</v>
@@ -23500,7 +23482,7 @@
         <v>2</v>
       </c>
       <c r="C71" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D71" s="52" t="s">
         <v>28</v>
@@ -23560,7 +23542,7 @@
         <v>34</v>
       </c>
       <c r="AB71" s="57" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AD71">
         <f t="shared" si="13"/>
@@ -23614,7 +23596,7 @@
         <v>2</v>
       </c>
       <c r="C72" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D72" s="52" t="s">
         <v>46</v>
@@ -23723,7 +23705,7 @@
         <v>2</v>
       </c>
       <c r="C73" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D73" s="52" t="s">
         <v>28</v>
@@ -23829,7 +23811,7 @@
         <v>2</v>
       </c>
       <c r="C74" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D74" s="52" t="s">
         <v>46</v>
@@ -23935,7 +23917,7 @@
         <v>2</v>
       </c>
       <c r="C75" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D75" s="52" t="s">
         <v>30</v>
@@ -24047,7 +24029,7 @@
         <v>3</v>
       </c>
       <c r="C76" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D76" s="52" t="s">
         <v>37</v>
@@ -24159,7 +24141,7 @@
         <v>3</v>
       </c>
       <c r="C77" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D77" s="52" t="s">
         <v>28</v>
@@ -24265,7 +24247,7 @@
         <v>3</v>
       </c>
       <c r="C78" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D78" s="52" t="s">
         <v>37</v>
@@ -24371,7 +24353,7 @@
         <v>3</v>
       </c>
       <c r="C79" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D79" s="52" t="s">
         <v>28</v>
@@ -24477,7 +24459,7 @@
         <v>3</v>
       </c>
       <c r="C80" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D80" s="52" t="s">
         <v>30</v>
@@ -24584,7 +24566,7 @@
         <v>3</v>
       </c>
       <c r="C81" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D81" s="52" t="s">
         <v>37</v>
@@ -24640,9 +24622,6 @@
       </c>
       <c r="W81">
         <v>1174.21</v>
-      </c>
-      <c r="AB81" t="s">
-        <v>166</v>
       </c>
       <c r="AD81">
         <f t="shared" si="13"/>
@@ -24697,7 +24676,7 @@
         <v>3</v>
       </c>
       <c r="C82" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D82" s="52" t="s">
         <v>28</v>
@@ -24806,7 +24785,7 @@
         <v>3</v>
       </c>
       <c r="C83" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D83" s="52" t="s">
         <v>30</v>
@@ -24913,10 +24892,10 @@
         <v>3</v>
       </c>
       <c r="C84" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D84" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E84" s="52">
         <v>14.2</v>
@@ -24993,7 +24972,7 @@
         <v>3</v>
       </c>
       <c r="C85" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D85" s="52" t="s">
         <v>30</v>
@@ -25094,10 +25073,10 @@
         <v>3</v>
       </c>
       <c r="C86" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D86" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E86" s="52">
         <v>23.5</v>
@@ -25174,7 +25153,7 @@
         <v>3</v>
       </c>
       <c r="C87" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D87" s="52" t="s">
         <v>28</v>
@@ -25280,7 +25259,7 @@
         <v>3</v>
       </c>
       <c r="C88" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D88" s="52" t="s">
         <v>30</v>
@@ -25384,7 +25363,7 @@
         <v>4</v>
       </c>
       <c r="C89" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D89" s="52" t="s">
         <v>37</v>
@@ -25490,7 +25469,7 @@
         <v>4</v>
       </c>
       <c r="C90" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D90" s="52" t="s">
         <v>28</v>
@@ -25599,10 +25578,10 @@
         <v>4</v>
       </c>
       <c r="C91" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D91" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E91" s="52">
         <v>5.3</v>
@@ -25698,10 +25677,10 @@
         <v>4</v>
       </c>
       <c r="C92" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D92" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E92" s="52">
         <v>9.1999999999999993</v>
@@ -25778,10 +25757,10 @@
         <v>4</v>
       </c>
       <c r="C93" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D93" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E93" s="52">
         <v>6.8</v>
@@ -25880,7 +25859,7 @@
         <v>4</v>
       </c>
       <c r="C94" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D94" s="52" t="s">
         <v>37</v>
@@ -25993,7 +25972,7 @@
         <v>4</v>
       </c>
       <c r="C95" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D95" s="52" t="s">
         <v>28</v>
@@ -26102,10 +26081,10 @@
         <v>4</v>
       </c>
       <c r="C96" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D96" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E96" s="52">
         <v>11.9</v>
@@ -26182,7 +26161,7 @@
         <v>4</v>
       </c>
       <c r="C97" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D97" s="52" t="s">
         <v>37</v>
@@ -26294,7 +26273,7 @@
         <v>4</v>
       </c>
       <c r="C98" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D98" s="52" t="s">
         <v>30</v>
@@ -26400,7 +26379,7 @@
         <v>4</v>
       </c>
       <c r="C99" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D99" s="52" t="s">
         <v>37</v>
@@ -26509,7 +26488,7 @@
         <v>4</v>
       </c>
       <c r="C100" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D100" s="52" t="s">
         <v>30</v>
@@ -26618,7 +26597,7 @@
         <v>4</v>
       </c>
       <c r="C101" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D101" s="52" t="s">
         <v>37</v>
@@ -26724,7 +26703,7 @@
         <v>4</v>
       </c>
       <c r="C102" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D102" s="52" t="s">
         <v>30</v>
@@ -26804,7 +26783,7 @@
         <v>5</v>
       </c>
       <c r="C103" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D103" s="52" t="s">
         <v>28</v>
@@ -26903,7 +26882,7 @@
         <v>5</v>
       </c>
       <c r="C104" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D104" s="52" t="s">
         <v>29</v>
@@ -27009,7 +26988,7 @@
         <v>5</v>
       </c>
       <c r="C105" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D105" s="52" t="s">
         <v>28</v>
@@ -27115,7 +27094,7 @@
         <v>5</v>
       </c>
       <c r="C106" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D106" s="52" t="s">
         <v>29</v>
@@ -27224,7 +27203,7 @@
         <v>5</v>
       </c>
       <c r="C107" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D107" s="52" t="s">
         <v>37</v>
@@ -27333,7 +27312,7 @@
         <v>5</v>
       </c>
       <c r="C108" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D108" s="52" t="s">
         <v>28</v>
@@ -27439,7 +27418,7 @@
         <v>5</v>
       </c>
       <c r="C109" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D109" s="52" t="s">
         <v>29</v>
@@ -27544,7 +27523,7 @@
         <v>5</v>
       </c>
       <c r="C110" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D110" s="52" t="s">
         <v>37</v>
@@ -27650,7 +27629,7 @@
         <v>5</v>
       </c>
       <c r="C111" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D111" s="52" t="s">
         <v>28</v>
@@ -27756,7 +27735,7 @@
         <v>5</v>
       </c>
       <c r="C112" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D112" s="52" t="s">
         <v>30</v>
@@ -27865,7 +27844,7 @@
         <v>5</v>
       </c>
       <c r="C113" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D113" s="52" t="s">
         <v>37</v>
@@ -27977,7 +27956,7 @@
         <v>5</v>
       </c>
       <c r="C114" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D114" s="52" t="s">
         <v>28</v>
@@ -28083,7 +28062,7 @@
         <v>5</v>
       </c>
       <c r="C115" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D115" s="52" t="s">
         <v>29</v>
@@ -28189,7 +28168,7 @@
         <v>5</v>
       </c>
       <c r="C116" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D116" s="52" t="s">
         <v>37</v>
@@ -28279,7 +28258,7 @@
         <v>5</v>
       </c>
       <c r="C117" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D117" s="52" t="s">
         <v>28</v>
@@ -28387,10 +28366,10 @@
         <v>5</v>
       </c>
       <c r="C118" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D118" s="52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E118" s="52">
         <v>171.2</v>
@@ -28499,7 +28478,7 @@
         <v>5</v>
       </c>
       <c r="C119" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D119" s="52" t="s">
         <v>29</v>
@@ -28616,7 +28595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB97E2D5-F0DA-4BE1-95F4-350946FDEB02}">
   <dimension ref="A1:AS71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="AS6" sqref="AS6"/>
     </sheetView>
@@ -28632,10 +28611,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="71" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>2</v>
@@ -28647,22 +28626,22 @@
         <v>4</v>
       </c>
       <c r="G1" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="J1" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="30" t="s">
-        <v>178</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="J1" s="31" t="s">
-        <v>180</v>
-      </c>
       <c r="K1" s="30" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L1" s="31" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="M1" s="32" t="s">
         <v>6</v>
@@ -28701,22 +28680,22 @@
         <v>16</v>
       </c>
       <c r="Y1" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z1" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="Z1" s="61" t="s">
+      <c r="AA1" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="AA1" s="61" t="s">
+      <c r="AB1" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="AC1" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="AB1" s="61" t="s">
-        <v>134</v>
-      </c>
-      <c r="AC1" s="61" t="s">
-        <v>126</v>
-      </c>
       <c r="AD1" s="61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AE1" s="61" t="s">
         <v>32</v>
@@ -28740,7 +28719,7 @@
         <v>21</v>
       </c>
       <c r="AM1" s="35" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AN1" s="37" t="s">
         <v>22</v>
@@ -28769,10 +28748,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D2" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E2" s="52">
         <v>2.2999999999999998</v>
@@ -28849,10 +28828,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D3" s="56" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E3" s="52"/>
       <c r="F3" s="52"/>
@@ -28863,7 +28842,7 @@
         <v>4.0199999999999996</v>
       </c>
       <c r="AF3" s="56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AH3">
         <f>W3+O3+M3+L2+K3</f>
@@ -28886,10 +28865,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E4" s="52">
         <v>21.9</v>
@@ -28969,10 +28948,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D5" s="52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E5" s="52">
         <v>3.5</v>
@@ -29046,10 +29025,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E6" s="52">
         <v>18.2</v>
@@ -29123,7 +29102,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D7" s="52" t="s">
         <v>30</v>
@@ -29226,10 +29205,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D8" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E8" s="52">
         <v>19.399999999999999</v>
@@ -29309,10 +29288,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E9" s="52">
         <v>3.9</v>
@@ -29386,10 +29365,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E10" s="52">
         <v>36</v>
@@ -29490,10 +29469,10 @@
         <v>1</v>
       </c>
       <c r="C11" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E11" s="52">
         <v>9.5</v>
@@ -29579,7 +29558,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D12" s="52" t="s">
         <v>30</v>
@@ -29656,10 +29635,10 @@
         <v>1</v>
       </c>
       <c r="C13" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E13" s="52">
         <v>18.2</v>
@@ -29736,10 +29715,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E14" s="52">
         <v>5.3</v>
@@ -29813,10 +29792,10 @@
         <v>1</v>
       </c>
       <c r="C15" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E15" s="52">
         <v>12.6</v>
@@ -29890,10 +29869,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E16" s="52">
         <v>7.2</v>
@@ -29975,10 +29954,10 @@
         <v>1</v>
       </c>
       <c r="C17" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E17" s="52">
         <v>29.1</v>
@@ -30081,10 +30060,10 @@
         <v>1</v>
       </c>
       <c r="C18" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E18" s="52">
         <v>24.5</v>
@@ -30159,10 +30138,10 @@
         <v>2</v>
       </c>
       <c r="C19" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E19" s="52">
         <v>18.399999999999999</v>
@@ -30265,10 +30244,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E20" s="52">
         <v>51.1</v>
@@ -30344,10 +30323,10 @@
         <v>2</v>
       </c>
       <c r="C21" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E21" s="52">
         <v>136.5</v>
@@ -30453,10 +30432,10 @@
         <v>2</v>
       </c>
       <c r="C22" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E22" s="52">
         <v>27.4</v>
@@ -30510,7 +30489,7 @@
         <v>219.82</v>
       </c>
       <c r="AF22" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AH22">
         <f t="shared" si="2"/>
@@ -30565,7 +30544,7 @@
         <v>2</v>
       </c>
       <c r="C23" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D23" s="52" t="s">
         <v>30</v>
@@ -30665,10 +30644,10 @@
         <v>2</v>
       </c>
       <c r="C24" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D24" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E24" s="52">
         <v>3.2</v>
@@ -30742,10 +30721,10 @@
         <v>2</v>
       </c>
       <c r="C25" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D25" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E25" s="52">
         <v>20.399999999999999</v>
@@ -30821,7 +30800,7 @@
         <v>2</v>
       </c>
       <c r="C26" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D26" s="52" t="s">
         <v>37</v>
@@ -30924,10 +30903,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D27" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E27" s="52">
         <v>25.2</v>
@@ -31030,10 +31009,10 @@
         <v>2</v>
       </c>
       <c r="C28" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D28" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E28" s="52">
         <v>26.9</v>
@@ -31107,10 +31086,10 @@
         <v>2</v>
       </c>
       <c r="C29" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D29" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E29" s="52">
         <v>42.2</v>
@@ -31189,10 +31168,10 @@
         <v>2</v>
       </c>
       <c r="C30" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D30" s="52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E30" s="52">
         <v>91.8</v>
@@ -31295,10 +31274,10 @@
         <v>2</v>
       </c>
       <c r="C31" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D31" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E31" s="52">
         <v>26.6</v>
@@ -31401,10 +31380,10 @@
         <v>2</v>
       </c>
       <c r="C32" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D32" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E32" s="52">
         <v>15.2</v>
@@ -31455,7 +31434,7 @@
         <v>209.83</v>
       </c>
       <c r="AF32" s="52" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AH32">
         <f t="shared" si="2"/>
@@ -31510,10 +31489,10 @@
         <v>2</v>
       </c>
       <c r="C33" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D33" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E33" s="52">
         <v>47.1</v>
@@ -31587,10 +31566,10 @@
         <v>2</v>
       </c>
       <c r="C34" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D34" s="52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E34" s="52">
         <v>190.1</v>
@@ -31693,7 +31672,7 @@
         <v>2</v>
       </c>
       <c r="C35" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D35" s="52" t="s">
         <v>28</v>
@@ -31744,7 +31723,7 @@
         <v>129.76</v>
       </c>
       <c r="AF35" s="52" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AH35">
         <f t="shared" si="2"/>
@@ -31799,10 +31778,10 @@
         <v>2</v>
       </c>
       <c r="C36" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D36" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E36" s="52">
         <v>18.5</v>
@@ -31905,7 +31884,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D37" s="52" t="s">
         <v>30</v>
@@ -32003,10 +31982,10 @@
         <v>2</v>
       </c>
       <c r="C38" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D38" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E38" s="52">
         <v>13.1</v>
@@ -32085,10 +32064,10 @@
         <v>2</v>
       </c>
       <c r="C39" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D39" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E39" s="52">
         <v>40.1</v>
@@ -32162,7 +32141,7 @@
         <v>2</v>
       </c>
       <c r="C40" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D40" s="52" t="s">
         <v>37</v>
@@ -32253,10 +32232,10 @@
         <v>2</v>
       </c>
       <c r="C41" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D41" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E41" s="52">
         <v>23.7</v>
@@ -32358,7 +32337,7 @@
         <v>3</v>
       </c>
       <c r="C42" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D42" s="52" t="s">
         <v>37</v>
@@ -32467,7 +32446,7 @@
         <v>3</v>
       </c>
       <c r="C43" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D43" s="52" t="s">
         <v>37</v>
@@ -32579,10 +32558,10 @@
         <v>3</v>
       </c>
       <c r="C44" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D44" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E44" s="52">
         <v>10.1</v>
@@ -32658,7 +32637,7 @@
         <v>3</v>
       </c>
       <c r="C45" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D45" s="52" t="s">
         <v>37</v>
@@ -32770,7 +32749,7 @@
         <v>3</v>
       </c>
       <c r="C46" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D46" s="52" t="s">
         <v>28</v>
@@ -32879,7 +32858,7 @@
         <v>3</v>
       </c>
       <c r="C47" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D47" s="52" t="s">
         <v>37</v>
@@ -32991,10 +32970,10 @@
         <v>3</v>
       </c>
       <c r="C48" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D48" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E48" s="52">
         <v>19.7</v>
@@ -33070,7 +33049,7 @@
         <v>3</v>
       </c>
       <c r="C49" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D49" s="52" t="s">
         <v>37</v>
@@ -33176,7 +33155,7 @@
         <v>3</v>
       </c>
       <c r="C50" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D50" s="52" t="s">
         <v>28</v>
@@ -33285,7 +33264,7 @@
         <v>3</v>
       </c>
       <c r="C51" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D51" s="52" t="s">
         <v>37</v>
@@ -33394,10 +33373,10 @@
         <v>4</v>
       </c>
       <c r="C52" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D52" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E52" s="52">
         <v>4.3</v>
@@ -33473,7 +33452,7 @@
         <v>4</v>
       </c>
       <c r="C53" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D53" s="52" t="s">
         <v>28</v>
@@ -33582,10 +33561,10 @@
         <v>4</v>
       </c>
       <c r="C54" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D54" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E54" s="52">
         <v>11.3</v>
@@ -33659,10 +33638,10 @@
         <v>4</v>
       </c>
       <c r="C55" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D55" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E55" s="52">
         <v>8.8000000000000007</v>
@@ -33738,7 +33717,7 @@
         <v>4</v>
       </c>
       <c r="C56" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D56" s="52" t="s">
         <v>28</v>
@@ -33844,7 +33823,7 @@
         <v>4</v>
       </c>
       <c r="C57" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D57" s="52" t="s">
         <v>28</v>
@@ -33904,7 +33883,7 @@
         <v>3409.68</v>
       </c>
       <c r="AF57" s="52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AH57">
         <f t="shared" si="2"/>
@@ -33959,7 +33938,7 @@
         <v>4</v>
       </c>
       <c r="C58" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D58" s="52" t="s">
         <v>30</v>
@@ -34006,7 +33985,7 @@
         <v>795.02</v>
       </c>
       <c r="AF58" s="52" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AH58">
         <f t="shared" si="2"/>
@@ -34053,10 +34032,10 @@
         <v>4</v>
       </c>
       <c r="C59" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D59" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E59" s="52">
         <v>25.7</v>
@@ -34131,10 +34110,10 @@
         <v>5</v>
       </c>
       <c r="C60" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D60" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E60" s="52">
         <v>18.399999999999999</v>
@@ -34210,7 +34189,7 @@
         <v>5</v>
       </c>
       <c r="C61" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D61" s="52" t="s">
         <v>37</v>
@@ -34316,10 +34295,10 @@
         <v>5</v>
       </c>
       <c r="C62" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D62" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E62" s="52">
         <v>20.7</v>
@@ -34395,7 +34374,7 @@
         <v>5</v>
       </c>
       <c r="C63" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D63" s="52" t="s">
         <v>30</v>
@@ -34493,10 +34472,10 @@
         <v>5</v>
       </c>
       <c r="C64" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D64" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E64" s="52">
         <v>14.2</v>
@@ -34575,7 +34554,7 @@
         <v>5</v>
       </c>
       <c r="C65" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D65" s="52" t="s">
         <v>30</v>
@@ -34632,7 +34611,7 @@
         <v>2346.9699999999998</v>
       </c>
       <c r="AF65" s="52" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AH65">
         <f t="shared" si="2"/>
@@ -34687,10 +34666,10 @@
         <v>5</v>
       </c>
       <c r="C66" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D66" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E66" s="52">
         <v>11.4</v>
@@ -34766,7 +34745,7 @@
         <v>5</v>
       </c>
       <c r="C67" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D67" s="52" t="s">
         <v>30</v>
@@ -34875,10 +34854,10 @@
         <v>5</v>
       </c>
       <c r="C68" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D68" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E68" s="52">
         <v>26.4</v>
@@ -34954,7 +34933,7 @@
         <v>5</v>
       </c>
       <c r="C69" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D69" s="52" t="s">
         <v>30</v>
@@ -35057,10 +35036,10 @@
         <v>5</v>
       </c>
       <c r="C70" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D70" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E70" s="52">
         <v>6.7</v>
@@ -35163,10 +35142,10 @@
         <v>5</v>
       </c>
       <c r="C71" s="52" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D71" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E71" s="52">
         <v>17.600000000000001</v>
@@ -35263,10 +35242,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="72" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C1" s="72" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D1" s="40" t="s">
         <v>2</v>
@@ -35278,22 +35257,22 @@
         <v>4</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H1" s="43" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="I1" s="44" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="J1" s="44" t="s">
         <v>5</v>
       </c>
       <c r="K1" s="43" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="L1" s="44" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="M1" s="45" t="s">
         <v>6</v>
@@ -35332,19 +35311,19 @@
         <v>16</v>
       </c>
       <c r="Y1" s="63" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Z1" s="63" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AA1" s="63" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB1" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="AB1" s="63" t="s">
-        <v>148</v>
-      </c>
       <c r="AC1" s="63" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AD1" t="s">
         <v>0</v>
@@ -35365,13 +35344,13 @@
         <v>21</v>
       </c>
       <c r="AK1" s="48" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AL1" s="50" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AM1" s="51" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AN1" s="50" t="s">
         <v>24</v>
@@ -35394,7 +35373,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="62" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D2" s="62"/>
       <c r="E2" s="52"/>
@@ -35408,7 +35387,7 @@
         <v>13017.6</v>
       </c>
       <c r="AD2" s="52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AK2">
         <f>Z2+AA2+AB2+AC2</f>
@@ -35423,10 +35402,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D3" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E3" s="52">
         <v>11.6</v>
@@ -35505,10 +35484,10 @@
         <v>2</v>
       </c>
       <c r="C4" s="62" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D4" s="52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E4" s="52">
         <v>8.8000000000000007</v>
@@ -35552,7 +35531,7 @@
         <v>39.57</v>
       </c>
       <c r="AD4" s="52" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AF4">
         <f t="shared" si="0"/>
@@ -35603,7 +35582,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="62" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D5" s="52"/>
       <c r="E5" s="52"/>
@@ -35615,7 +35594,7 @@
         <v>14123.8</v>
       </c>
       <c r="AD5" s="52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AK5">
         <f t="shared" si="1"/>
@@ -35630,10 +35609,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="62" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D6" s="52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E6" s="52">
         <v>1.8</v>
@@ -35684,7 +35663,7 @@
         <v>20007.8</v>
       </c>
       <c r="AD6" s="52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF6">
         <f t="shared" si="0"/>
@@ -35739,7 +35718,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="62" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D7" s="52"/>
       <c r="E7" s="52"/>
@@ -35753,7 +35732,7 @@
         <v>16201.6</v>
       </c>
       <c r="AD7" s="52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AK7">
         <f t="shared" si="1"/>
@@ -35768,7 +35747,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D8" s="52"/>
       <c r="E8" s="52"/>
@@ -35782,7 +35761,7 @@
         <v>10674.5</v>
       </c>
       <c r="AD8" s="52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AK8">
         <f t="shared" si="1"/>
@@ -35797,10 +35776,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D9" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E9" s="52">
         <v>8.5</v>
@@ -35904,10 +35883,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="62" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D10" s="52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E10" s="52">
         <v>1.7</v>
@@ -35979,10 +35958,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D11" s="52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E11" s="52">
         <v>28.3</v>
@@ -36085,10 +36064,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="62" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D12" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E12" s="52">
         <v>9.1999999999999993</v>
@@ -36137,7 +36116,7 @@
         <v>352.31</v>
       </c>
       <c r="AD12" s="52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF12">
         <f t="shared" si="0"/>
@@ -36192,10 +36171,10 @@
         <v>3</v>
       </c>
       <c r="C13" s="62" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D13" s="52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E13" s="52">
         <v>2.7</v>
@@ -36269,10 +36248,10 @@
         <v>3</v>
       </c>
       <c r="C14" s="62" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D14" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E14" s="52">
         <v>11.4</v>
@@ -36363,10 +36342,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="62" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D15" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E15" s="52">
         <v>2.2999999999999998</v>
@@ -36438,10 +36417,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="62" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E16" s="52">
         <v>2.9</v>
@@ -36538,10 +36517,10 @@
         <v>3</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D17" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E17" s="52">
         <v>8.1999999999999993</v>
@@ -36590,7 +36569,7 @@
         <v>139.37</v>
       </c>
       <c r="AD17" s="52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF17">
         <f t="shared" si="0"/>
@@ -36645,10 +36624,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="62" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D18" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E18" s="52">
         <v>6.4</v>
@@ -36720,10 +36699,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="62" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D19" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E19" s="52">
         <v>7.1</v>
@@ -36795,10 +36774,10 @@
         <v>3</v>
       </c>
       <c r="C20" s="62" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D20" s="52" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E20" s="52">
         <v>18.399999999999999</v>
@@ -36846,7 +36825,7 @@
         <v>182.76</v>
       </c>
       <c r="AD20" s="52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF20">
         <f t="shared" si="0"/>
@@ -36901,10 +36880,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="62" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D21" s="52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E21" s="52">
         <v>5.2</v>
@@ -36980,10 +36959,10 @@
         <v>3</v>
       </c>
       <c r="C22" s="62" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D22" s="52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E22" s="52">
         <v>9.1999999999999993</v>
@@ -37057,10 +37036,10 @@
         <v>1</v>
       </c>
       <c r="C23" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D23" s="62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E23" s="52">
         <v>66.5</v>
@@ -37139,10 +37118,10 @@
         <v>1</v>
       </c>
       <c r="C24" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D24" s="62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E24" s="52">
         <v>28.9</v>
@@ -37200,7 +37179,7 @@
         <v>1469.75</v>
       </c>
       <c r="AD24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF24">
         <f t="shared" si="0"/>
@@ -37255,10 +37234,10 @@
         <v>1</v>
       </c>
       <c r="C25" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D25" s="62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E25" s="52">
         <v>21.1</v>
@@ -37332,10 +37311,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D26" s="62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E26" s="52">
         <v>15.4</v>
@@ -37409,10 +37388,10 @@
         <v>1</v>
       </c>
       <c r="C27" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D27" s="62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E27" s="52">
         <v>34.200000000000003</v>
@@ -37521,10 +37500,10 @@
         <v>1</v>
       </c>
       <c r="C28" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D28" s="62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E28" s="52">
         <v>13.4</v>
@@ -37625,10 +37604,10 @@
         <v>1</v>
       </c>
       <c r="C29" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D29" s="62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E29" s="52">
         <v>19.5</v>
@@ -37702,10 +37681,10 @@
         <v>1</v>
       </c>
       <c r="C30" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D30" s="62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E30" s="52">
         <v>4.0999999999999996</v>
@@ -37781,10 +37760,10 @@
         <v>1</v>
       </c>
       <c r="C31" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D31" s="62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E31" s="52">
         <v>3.5</v>
@@ -37858,10 +37837,10 @@
         <v>1</v>
       </c>
       <c r="C32" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D32" s="68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E32" s="52">
         <v>10.7</v>
@@ -37909,7 +37888,7 @@
         <v>248.48</v>
       </c>
       <c r="AD32" s="52" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="AF32">
         <f>W32+O32+M32+L33+K33</f>
@@ -37964,10 +37943,10 @@
         <v>1</v>
       </c>
       <c r="C33" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D33" s="62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E33" s="52">
         <v>7.8</v>
@@ -38041,10 +38020,10 @@
         <v>1</v>
       </c>
       <c r="C34" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D34" s="62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E34" s="52">
         <v>15.4</v>
@@ -38085,7 +38064,7 @@
         <v>5.09</v>
       </c>
       <c r="AD34" s="52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF34">
         <f>W34+M34+L34+K34</f>
@@ -38132,10 +38111,10 @@
         <v>1</v>
       </c>
       <c r="C35" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D35" s="62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E35" s="52">
         <v>41.8</v>
@@ -38211,10 +38190,10 @@
         <v>1</v>
       </c>
       <c r="C36" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D36" s="62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E36" s="52">
         <v>11.6</v>
@@ -38288,10 +38267,10 @@
         <v>1</v>
       </c>
       <c r="C37" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D37" s="62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E37" s="52">
         <v>14.7</v>
@@ -38329,7 +38308,7 @@
         <v>143.07</v>
       </c>
       <c r="AD37" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF37">
         <f t="shared" si="0"/>
@@ -38368,10 +38347,10 @@
         <v>1</v>
       </c>
       <c r="C38" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D38" s="68" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E38" s="52">
         <v>31</v>
@@ -38474,10 +38453,10 @@
         <v>1</v>
       </c>
       <c r="C39" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D39" s="62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E39" s="52">
         <v>32.6</v>
@@ -38580,10 +38559,10 @@
         <v>1</v>
       </c>
       <c r="C40" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D40" s="62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E40" s="52">
         <v>50.1</v>
@@ -38628,7 +38607,7 @@
         <v>45.27</v>
       </c>
       <c r="AD40" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF40">
         <f>W40+M40+L40+K40</f>
@@ -38683,10 +38662,10 @@
         <v>1</v>
       </c>
       <c r="C41" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D41" s="62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E41" s="52">
         <v>37.5</v>
@@ -38760,10 +38739,10 @@
         <v>1</v>
       </c>
       <c r="C42" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D42" s="62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E42" s="52">
         <v>3.2</v>
@@ -38801,7 +38780,7 @@
         <v>0.49</v>
       </c>
       <c r="AD42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF42">
         <f t="shared" si="0"/>
@@ -38840,10 +38819,10 @@
         <v>1</v>
       </c>
       <c r="C43" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D43" s="62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E43" s="52">
         <v>10.1</v>
@@ -38879,7 +38858,7 @@
         <v>14.37</v>
       </c>
       <c r="AD43" s="52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AF43">
         <f t="shared" si="0"/>
@@ -38918,10 +38897,10 @@
         <v>1</v>
       </c>
       <c r="C44" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D44" s="62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E44" s="52">
         <v>9.4</v>
@@ -38963,7 +38942,7 @@
         <v>57.63</v>
       </c>
       <c r="AD44" s="52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AF44">
         <f t="shared" si="0"/>
@@ -39010,10 +38989,10 @@
         <v>1</v>
       </c>
       <c r="C45" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D45" s="62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E45" s="52">
         <v>15.5</v>
@@ -39055,7 +39034,7 @@
         <v>56.28</v>
       </c>
       <c r="AD45" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="AF45">
         <f t="shared" si="0"/>
@@ -39094,10 +39073,10 @@
         <v>1</v>
       </c>
       <c r="C46" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D46" s="62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E46" s="52">
         <v>29.6</v>
@@ -39146,7 +39125,7 @@
         <v>1609.54</v>
       </c>
       <c r="AD46" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AF46">
         <f t="shared" si="0"/>
@@ -39201,10 +39180,10 @@
         <v>1</v>
       </c>
       <c r="C47" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D47" s="62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E47" s="52">
         <v>17.600000000000001</v>
@@ -39255,7 +39234,7 @@
         <v>459.24</v>
       </c>
       <c r="AD47" s="52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF47">
         <f t="shared" si="0"/>
@@ -39310,10 +39289,10 @@
         <v>2</v>
       </c>
       <c r="C48" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D48" s="52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E48" s="52">
         <v>8.1</v>
@@ -39393,10 +39372,10 @@
         <v>2</v>
       </c>
       <c r="C49" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D49" s="52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E49" s="52">
         <v>8.5</v>
@@ -39470,10 +39449,10 @@
         <v>2</v>
       </c>
       <c r="C50" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D50" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E50" s="52">
         <v>14.2</v>
@@ -39561,10 +39540,10 @@
         <v>2</v>
       </c>
       <c r="C51" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D51" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E51" s="52">
         <v>11</v>
@@ -39642,10 +39621,10 @@
         <v>2</v>
       </c>
       <c r="C52" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D52" s="52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E52" s="52">
         <v>6.2</v>
@@ -39719,10 +39698,10 @@
         <v>2</v>
       </c>
       <c r="C53" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D53" s="52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E53" s="52">
         <v>6.2</v>
@@ -39796,10 +39775,10 @@
         <v>2</v>
       </c>
       <c r="C54" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D54" s="52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E54" s="52">
         <v>10.9</v>
@@ -39873,10 +39852,10 @@
         <v>2</v>
       </c>
       <c r="C55" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D55" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E55" s="52">
         <v>9.1</v>
@@ -39977,10 +39956,10 @@
         <v>2</v>
       </c>
       <c r="C56" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D56" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E56" s="52">
         <v>5.4</v>
@@ -40058,10 +40037,10 @@
         <v>2</v>
       </c>
       <c r="C57" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D57" s="52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E57" s="52">
         <v>7.5</v>
@@ -40099,7 +40078,7 @@
         <v>12.22</v>
       </c>
       <c r="AD57" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AF57">
         <f t="shared" si="0"/>
@@ -40138,10 +40117,10 @@
         <v>2</v>
       </c>
       <c r="C58" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D58" s="52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E58" s="52">
         <v>6.3</v>
@@ -40215,10 +40194,10 @@
         <v>2</v>
       </c>
       <c r="C59" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D59" s="52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E59" s="52">
         <v>4.7</v>
@@ -40298,10 +40277,10 @@
         <v>2</v>
       </c>
       <c r="C60" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D60" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E60" s="52">
         <v>3.1</v>
@@ -40399,10 +40378,10 @@
         <v>2</v>
       </c>
       <c r="C61" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D61" s="57" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E61" s="56"/>
       <c r="F61" s="52"/>
@@ -40439,7 +40418,7 @@
         <v>1560.94</v>
       </c>
       <c r="AD61" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="AF61">
         <f>W61+O61+M61+L61+K61</f>
@@ -40478,10 +40457,10 @@
         <v>2</v>
       </c>
       <c r="C62" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D62" s="52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E62" s="52">
         <v>5.8</v>
@@ -40555,10 +40534,10 @@
         <v>2</v>
       </c>
       <c r="C63" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D63" s="52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E63" s="52">
         <v>19.8</v>
@@ -40632,10 +40611,10 @@
         <v>2</v>
       </c>
       <c r="C64" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D64" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E64" s="52">
         <v>6.5</v>
@@ -40681,7 +40660,7 @@
         <v>16.71</v>
       </c>
       <c r="AD64" s="52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF64">
         <f t="shared" si="0"/>
@@ -40736,10 +40715,10 @@
         <v>2</v>
       </c>
       <c r="C65" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D65" s="52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E65" s="52">
         <v>6.5</v>
@@ -40820,10 +40799,10 @@
         <v>2</v>
       </c>
       <c r="C66" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D66" s="52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E66" s="52">
         <v>7.6</v>
@@ -40897,10 +40876,10 @@
         <v>2</v>
       </c>
       <c r="C67" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D67" s="52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E67" s="52">
         <v>18.100000000000001</v>
@@ -40974,10 +40953,10 @@
         <v>3</v>
       </c>
       <c r="C68" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D68" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E68" s="52">
         <v>12.6</v>
@@ -41054,10 +41033,10 @@
         <v>3</v>
       </c>
       <c r="C69" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D69" s="52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E69" s="52">
         <v>9.6999999999999993</v>
@@ -41095,7 +41074,7 @@
         <v>31.91</v>
       </c>
       <c r="AD69" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF69">
         <f t="shared" si="11"/>
@@ -41134,10 +41113,10 @@
         <v>3</v>
       </c>
       <c r="C70" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D70" s="52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E70" s="52">
         <v>2.5</v>
@@ -41173,7 +41152,7 @@
         <v>2.91</v>
       </c>
       <c r="AD70" s="57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AF70">
         <f t="shared" si="11"/>
@@ -41212,10 +41191,10 @@
         <v>3</v>
       </c>
       <c r="C71" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D71" s="52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E71" s="52">
         <v>59.4</v>
@@ -41318,10 +41297,10 @@
         <v>3</v>
       </c>
       <c r="C72" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D72" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E72" s="52">
         <v>23.6</v>
@@ -41398,10 +41377,10 @@
         <v>3</v>
       </c>
       <c r="C73" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D73" s="52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E73" s="52">
         <v>5.9</v>
@@ -41439,7 +41418,7 @@
         <v>12.83</v>
       </c>
       <c r="AD73" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF73">
         <f t="shared" si="11"/>
@@ -41478,10 +41457,10 @@
         <v>3</v>
       </c>
       <c r="C74" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D74" s="52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E74" s="52">
         <v>4.0999999999999996</v>
@@ -41555,10 +41534,10 @@
         <v>3</v>
       </c>
       <c r="C75" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D75" s="52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E75" s="52">
         <v>15.4</v>
@@ -41661,10 +41640,10 @@
         <v>3</v>
       </c>
       <c r="C76" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D76" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E76" s="52">
         <v>10.6</v>
@@ -41750,10 +41729,10 @@
         <v>3</v>
       </c>
       <c r="C77" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D77" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E77" s="52">
         <v>17.2</v>
@@ -41830,10 +41809,10 @@
         <v>3</v>
       </c>
       <c r="C78" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D78" s="52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E78" s="52">
         <v>8.8000000000000007</v>
@@ -41871,7 +41850,7 @@
         <v>16.170000000000002</v>
       </c>
       <c r="AD78" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AF78">
         <f t="shared" si="11"/>
@@ -41910,10 +41889,10 @@
         <v>3</v>
       </c>
       <c r="C79" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D79" s="52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E79" s="52">
         <v>4.3</v>
@@ -41987,10 +41966,10 @@
         <v>3</v>
       </c>
       <c r="C80" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D80" s="52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E80" s="52">
         <v>59.9</v>
@@ -42096,10 +42075,10 @@
         <v>3</v>
       </c>
       <c r="C81" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D81" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E81" s="52">
         <v>20.8</v>
@@ -42176,10 +42155,10 @@
         <v>3</v>
       </c>
       <c r="C82" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D82" s="52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E82" s="52">
         <v>12.7</v>
@@ -42253,10 +42232,10 @@
         <v>3</v>
       </c>
       <c r="C83" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D83" s="52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E83" s="52">
         <v>7.9</v>
@@ -42330,10 +42309,10 @@
         <v>3</v>
       </c>
       <c r="C84" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D84" s="52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E84" s="52">
         <v>46.7</v>
@@ -42442,10 +42421,10 @@
         <v>3</v>
       </c>
       <c r="C85" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D85" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E85" s="52">
         <v>5.3</v>
@@ -42546,10 +42525,10 @@
         <v>3</v>
       </c>
       <c r="C86" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D86" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E86" s="52">
         <v>7.3</v>
@@ -42590,7 +42569,7 @@
         <v>4894.5</v>
       </c>
       <c r="AD86" s="57" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF86">
         <f t="shared" si="11"/>
@@ -42629,10 +42608,10 @@
         <v>3</v>
       </c>
       <c r="C87" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D87" s="52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E87" s="52">
         <v>10.4</v>
@@ -42706,10 +42685,10 @@
         <v>3</v>
       </c>
       <c r="C88" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D88" s="52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E88" s="52">
         <v>7</v>
@@ -42783,10 +42762,10 @@
         <v>3</v>
       </c>
       <c r="C89" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D89" s="52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E89" s="52">
         <v>39.4</v>
@@ -42889,10 +42868,10 @@
         <v>3</v>
       </c>
       <c r="C90" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D90" s="52" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E90" s="52">
         <v>4.3</v>
@@ -42980,10 +42959,10 @@
         <v>3</v>
       </c>
       <c r="C91" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D91" s="52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E91" s="52">
         <v>9.6</v>
@@ -43022,7 +43001,7 @@
         <v>2862.3</v>
       </c>
       <c r="AD91" s="57" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF91">
         <f>W91+O91+L91+K91</f>
@@ -43061,10 +43040,10 @@
         <v>3</v>
       </c>
       <c r="C92" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D92" s="52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E92" s="52">
         <v>7.7</v>
@@ -43102,7 +43081,7 @@
         <v>12.21</v>
       </c>
       <c r="AD92" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AF92">
         <f>W92+O92+M92+L92+K92</f>
@@ -43141,10 +43120,10 @@
         <v>3</v>
       </c>
       <c r="C93" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D93" s="52" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E93" s="52">
         <v>6.9</v>
@@ -43218,10 +43197,10 @@
         <v>3</v>
       </c>
       <c r="C94" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D94" s="52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E94" s="52">
         <v>40.299999999999997</v>
@@ -43270,7 +43249,7 @@
         <v>776.5</v>
       </c>
       <c r="AD94" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="AF94">
         <f>W94+O94+L94+K94</f>
@@ -43321,10 +43300,10 @@
         <v>4</v>
       </c>
       <c r="C95" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D95" s="62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E95" s="52">
         <v>8.1999999999999993</v>
@@ -43402,10 +43381,10 @@
         <v>4</v>
       </c>
       <c r="C96" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D96" s="62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E96" s="52">
         <v>9.3000000000000007</v>
@@ -43479,10 +43458,10 @@
         <v>4</v>
       </c>
       <c r="C97" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D97" s="62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E97" s="52">
         <v>74</v>
@@ -43585,10 +43564,10 @@
         <v>4</v>
       </c>
       <c r="C98" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D98" s="62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E98" s="52">
         <v>16.399999999999999</v>
@@ -43666,10 +43645,10 @@
         <v>4</v>
       </c>
       <c r="C99" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D99" s="62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E99" s="52">
         <v>3.5</v>
@@ -43741,10 +43720,10 @@
         <v>4</v>
       </c>
       <c r="C100" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D100" s="62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E100" s="52">
         <v>7.1</v>
@@ -43818,10 +43797,10 @@
         <v>4</v>
       </c>
       <c r="C101" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D101" s="62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E101" s="52">
         <v>8.6</v>
@@ -43909,10 +43888,10 @@
         <v>4</v>
       </c>
       <c r="C102" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D102" s="62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E102" s="52">
         <v>13.1</v>
@@ -43991,10 +43970,10 @@
         <v>4</v>
       </c>
       <c r="C103" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D103" s="62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E103" s="52">
         <v>4.0999999999999996</v>
@@ -44068,10 +44047,10 @@
         <v>4</v>
       </c>
       <c r="C104" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D104" s="62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E104" s="52">
         <v>17.100000000000001</v>
@@ -44145,10 +44124,10 @@
         <v>4</v>
       </c>
       <c r="C105" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D105" s="62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E105" s="52">
         <v>10.8</v>
@@ -44222,10 +44201,10 @@
         <v>4</v>
       </c>
       <c r="C106" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D106" s="62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E106" s="52">
         <v>6.6</v>
@@ -44302,10 +44281,10 @@
         <v>4</v>
       </c>
       <c r="C107" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D107" s="62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E107" s="52">
         <v>4</v>
@@ -44379,10 +44358,10 @@
         <v>4</v>
       </c>
       <c r="C108" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D108" s="62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E108" s="52">
         <v>73.099999999999994</v>
@@ -44488,10 +44467,10 @@
         <v>4</v>
       </c>
       <c r="C109" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D109" s="62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E109" s="52">
         <v>5.5</v>
@@ -44532,7 +44511,7 @@
         <v>7067.4</v>
       </c>
       <c r="AD109" s="57" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AF109">
         <f t="shared" si="11"/>
@@ -44571,10 +44550,10 @@
         <v>4</v>
       </c>
       <c r="C110" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D110" s="62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E110" s="52">
         <v>5.9</v>
@@ -44648,10 +44627,10 @@
         <v>4</v>
       </c>
       <c r="C111" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D111" s="62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E111" s="52">
         <v>62.8</v>
@@ -44752,10 +44731,10 @@
         <v>4</v>
       </c>
       <c r="C112" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D112" s="62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E112" s="52">
         <v>44.3</v>
@@ -44829,10 +44808,10 @@
         <v>4</v>
       </c>
       <c r="C113" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D113" s="62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E113" s="52">
         <v>15.1</v>
@@ -44873,7 +44852,7 @@
         <v>4899.8</v>
       </c>
       <c r="AD113" s="57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AF113">
         <f t="shared" si="11"/>
@@ -44912,10 +44891,10 @@
         <v>4</v>
       </c>
       <c r="C114" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D114" s="62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E114" s="52">
         <v>4.3</v>
@@ -44989,10 +44968,10 @@
         <v>4</v>
       </c>
       <c r="C115" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D115" s="62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E115" s="52">
         <v>21.7</v>
@@ -45068,10 +45047,10 @@
         <v>4</v>
       </c>
       <c r="C116" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D116" s="62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E116" s="52">
         <v>7.7</v>
@@ -45145,10 +45124,10 @@
         <v>5</v>
       </c>
       <c r="C117" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D117" s="62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E117" s="52">
         <v>8.4</v>
@@ -45222,7 +45201,7 @@
         <v>5</v>
       </c>
       <c r="C118" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D118" s="62" t="s">
         <v>37</v>
@@ -45331,10 +45310,10 @@
         <v>5</v>
       </c>
       <c r="C119" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D119" s="62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E119" s="52">
         <v>11.7</v>
@@ -45437,7 +45416,7 @@
         <v>5</v>
       </c>
       <c r="C120" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D120" s="62" t="s">
         <v>37</v>
@@ -45546,10 +45525,10 @@
         <v>5</v>
       </c>
       <c r="C121" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D121" s="62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E121" s="52">
         <v>9.6999999999999993</v>
@@ -45623,10 +45602,10 @@
         <v>5</v>
       </c>
       <c r="C122" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D122" s="62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E122" s="52">
         <v>9.6</v>
@@ -45700,7 +45679,7 @@
         <v>5</v>
       </c>
       <c r="C123" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D123" s="62" t="s">
         <v>37</v>
@@ -45806,10 +45785,10 @@
         <v>5</v>
       </c>
       <c r="C124" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D124" s="62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E124" s="52">
         <v>8</v>
@@ -45902,10 +45881,10 @@
         <v>5</v>
       </c>
       <c r="C125" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D125" s="62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E125" s="52">
         <v>14</v>
@@ -45979,10 +45958,10 @@
         <v>5</v>
       </c>
       <c r="C126" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D126" s="62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E126" s="52">
         <v>6.2</v>
@@ -46056,7 +46035,7 @@
         <v>5</v>
       </c>
       <c r="C127" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D127" s="62" t="s">
         <v>37</v>
@@ -46147,10 +46126,10 @@
         <v>5</v>
       </c>
       <c r="C128" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D128" s="62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E128" s="52">
         <v>10.3</v>
@@ -46224,7 +46203,7 @@
         <v>5</v>
       </c>
       <c r="C129" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D129" s="62" t="s">
         <v>37</v>
@@ -46314,10 +46293,10 @@
         <v>5</v>
       </c>
       <c r="C130" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D130" s="62" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E130" s="52">
         <v>18.5</v>
@@ -46391,10 +46370,10 @@
         <v>5</v>
       </c>
       <c r="C131" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D131" s="62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E131" s="52">
         <v>12.2</v>
@@ -46468,7 +46447,7 @@
         <v>5</v>
       </c>
       <c r="C132" s="62" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D132" s="62" t="s">
         <v>37</v>
